--- a/InputData/CMS Data.xlsx
+++ b/InputData/CMS Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>UserId</t>
   </si>
@@ -103,7 +103,7 @@
     <t>113</t>
   </si>
   <si>
-    <t>BMC</t>
+    <t>KM</t>
   </si>
 </sst>
 </file>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,11 +635,11 @@
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
+      <c r="B2" s="7">
+        <v>123</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>27</v>

--- a/InputData/CMS Data.xlsx
+++ b/InputData/CMS Data.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace\Web_Automation_Script\InputData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="8160"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>UserId</t>
   </si>
@@ -104,13 +108,25 @@
   </si>
   <si>
     <t>KM</t>
+  </si>
+  <si>
+    <t>http://testbaramatimc.ptaxcollection.com:8080/Pages/OfflinePayment.aspx</t>
+  </si>
+  <si>
+    <t>Cheque-fail</t>
+  </si>
+  <si>
+    <t>BMC</t>
+  </si>
+  <si>
+    <t>383-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +162,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF1DFDC"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -253,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -310,6 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,7 +620,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,11 +658,11 @@
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7">
-        <v>123</v>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>27</v>
@@ -695,11 +718,11 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
@@ -786,17 +809,25 @@
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14"/>
+      <c r="A16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
@@ -838,8 +869,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/InputData/CMS Data.xlsx
+++ b/InputData/CMS Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>UserId</t>
   </si>
@@ -120,13 +120,28 @@
   </si>
   <si>
     <t>383-</t>
+  </si>
+  <si>
+    <t>1577-</t>
+  </si>
+  <si>
+    <t>108-</t>
+  </si>
+  <si>
+    <t>1040-</t>
+  </si>
+  <si>
+    <t>1-</t>
+  </si>
+  <si>
+    <t>Testing properties for payment Baramati</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,12 +177,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF1DFDC"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -183,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -207,19 +216,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -275,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,15 +307,15 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -329,10 +325,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,11 +713,11 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
@@ -801,71 +796,118 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="8"/>
+    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+    <row r="15" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>1</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="17">
+        <v>9</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="F21" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="16"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
